--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.11_IE_Final.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.11_IE_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE2B149-6267-42AB-B96F-F75ADEB158B0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3154A35E-663F-432F-87FD-61BD748592CE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -58,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,32 +67,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Open Sans"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
     </font>
   </fonts>
   <fills count="3">
@@ -179,26 +171,26 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,46 +521,46 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:4" ht="27.95" customHeight="1">
+      <c r="A2" s="2">
         <v>43830</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>800</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:4" ht="30.75" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
         <v>800</v>
       </c>
     </row>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.11_IE_Final.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.11_IE_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3154A35E-663F-432F-87FD-61BD748592CE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B227F45-DF48-4D5C-B4CD-30AB4914590A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -101,7 +101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -165,11 +165,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,6 +229,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -564,6 +604,12 @@
         <v>800</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.11_IE_Final.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.11_IE_Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B227F45-DF48-4D5C-B4CD-30AB4914590A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC5EFD8-75A5-4002-A0FA-02225384EABE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -58,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,23 +68,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Open Sans"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Open Sans"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Open Sans"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Open Sans"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -208,6 +216,9 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -223,15 +234,12 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,54 +569,54 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27.95" customHeight="1">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>43830</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>800</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" ht="30.75" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8">
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
